--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,13 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha5</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha5</t>
   </si>
 </sst>
 </file>
@@ -519,19 +522,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H2">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N2">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -558,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04158692481899999</v>
+        <v>0.0006053244985</v>
       </c>
       <c r="R2">
-        <v>0.166347699276</v>
+        <v>0.003631946991</v>
       </c>
       <c r="S2">
         <v>1</v>
